--- a/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-1,16</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 25,1</t>
+          <t>-23,71; 18,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 14,23</t>
+          <t>-18,55; 18,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 15,12</t>
+          <t>-14,87; 12,91</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 111,5</t>
+          <t>-66,18; 109,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 54,81</t>
+          <t>-44,78; 80,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 58,74</t>
+          <t>-41,63; 59,97</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 8,4</t>
+          <t>-14,5; 12,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 9,43</t>
+          <t>-12,3; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 6,07</t>
+          <t>-8,83; 8,01</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 17,86</t>
+          <t>-26,25; 27,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 20,25</t>
+          <t>-21,07; 19,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 12,4</t>
+          <t>-16,11; 16,64</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 10,06</t>
+          <t>-12,52; 12,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 7,53</t>
+          <t>-10,54; 9,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 6,17</t>
+          <t>-8,09; 7,95</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-0,22%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 14,33</t>
+          <t>-16,25; 18,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,34</t>
+          <t>-13,28; 13,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 9,08</t>
+          <t>-10,82; 11,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,13</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 12,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 10,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 7,54</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 6,61</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 4,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 14,21</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 11,94</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 8,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8204781360548058</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.662692351982348</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.203323820238594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,71; 18,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,55; 18,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,87; 12,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.931589448366</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.88011458893903</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.53227040194644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,84%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.2730668277624</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.95393511313283</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.64840319158462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-66,18; 109,73</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,78; 80,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,63; 59,97</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.03362020564499762</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.05122580394809933</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.04193572425972757</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5852970516510457</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3922023873149589</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3605474591760824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,5; 12,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 9,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 8,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.403551742462088</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.9473526907334625</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7248476543017618</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,86%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,21%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.6611977518524492</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.330808287513552</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3841110078255161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-26,25; 27,64</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,07; 19,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 16,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.9118145623995</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.24295510591486</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.517032246891028</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.2398188678555</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.68022221867103</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.318211116729451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 12,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 9,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 7,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01285493539180851</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.02566554108750766</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.007436745810389758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2431519676319596</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1762438818208085</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1355537660260242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 18,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 13,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 11,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3097365544664784</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2485657611183385</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1982820764642103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.048825278976662</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.339953614303924</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.249020949707513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.23550448740462</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.92635133287884</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.496660289447489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.7568753624008</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.196365860471488</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.006705846567997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.01484337081816638</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01802787416723563</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01717989906421646</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1861916276608638</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1523604682029702</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1261926870013271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 7,54</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 6,61</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 4,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2035730341700047</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1196663566008661</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1007674445114608</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,97%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.5512383260103393</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1135528756427084</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.2051448144696377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-17,94; 14,21</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 11,94</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 8,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.226676020679822</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.962519304829396</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.35161644923187</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.924025178004182</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.115149445266673</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.574475228279361</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01001992488274988</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.001940053878929683</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.003605695739590268</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1588762314537435</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1106258269456346</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1027722453823009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1767302942867016</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1322101079284682</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1014102934687389</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
